--- a/Day4/ecoli_amr.xlsx
+++ b/Day4/ecoli_amr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juhuvn/works/vsob4/Day4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9995DA-A12E-9647-B3A8-548629A4FF10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC3D6AFA-B668-0C46-8387-D43FFDF2DAD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="720" yWindow="500" windowWidth="27700" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -154,9 +154,6 @@
     <t>ERR434327_TEM-1</t>
   </si>
   <si>
-    <t>Resistance</t>
-  </si>
-  <si>
     <t>Susceptible</t>
   </si>
   <si>
@@ -164,6 +161,9 @@
   </si>
   <si>
     <t>amr_status</t>
+  </si>
+  <si>
+    <t>Resistant</t>
   </si>
 </sst>
 </file>
@@ -1017,8 +1017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1028,10 +1028,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1039,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1047,7 +1047,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1055,7 +1055,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -1063,7 +1063,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -1071,7 +1071,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -1079,7 +1079,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -1087,7 +1087,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -1095,7 +1095,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -1103,7 +1103,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -1111,7 +1111,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -1119,7 +1119,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -1127,7 +1127,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -1135,7 +1135,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -1143,7 +1143,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -1151,7 +1151,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -1159,7 +1159,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -1167,7 +1167,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -1175,7 +1175,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -1183,7 +1183,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -1191,7 +1191,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -1199,7 +1199,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -1207,7 +1207,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -1215,7 +1215,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -1223,7 +1223,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -1231,7 +1231,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -1239,7 +1239,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -1247,7 +1247,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -1255,7 +1255,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -1263,7 +1263,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -1271,7 +1271,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -1279,7 +1279,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -1287,7 +1287,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -1295,7 +1295,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -1303,7 +1303,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -1311,7 +1311,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -1319,7 +1319,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -1327,7 +1327,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -1335,7 +1335,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -1343,7 +1343,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -1351,7 +1351,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
